--- a/XForms/RoadBarriers.xlsx
+++ b/XForms/RoadBarriers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t xml:space="preserve">hint::English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appearance</t>
   </si>
   <si>
     <t xml:space="preserve">start</t>
@@ -218,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -240,6 +255,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -316,34 +338,42 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,43 +381,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,7 +409,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,20 +442,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -446,404 +469,424 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-    </row>
-    <row r="5" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-    </row>
-    <row r="16" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AMJ16" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -875,7 +918,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -887,134 +930,134 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1048,19 +1091,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44391.4410529972</v>
+        <v>44391.4702283666</v>
       </c>
     </row>
   </sheetData>

--- a/XForms/RoadBarriers.xlsx
+++ b/XForms/RoadBarriers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -30,10 +30,10 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label::English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::English</t>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint</t>
   </si>
   <si>
     <t xml:space="preserve">relevant</t>
@@ -42,15 +42,15 @@
     <t xml:space="preserve">default</t>
   </si>
   <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appearance</t>
+  </si>
+  <si>
     <t xml:space="preserve">parameters</t>
   </si>
   <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
     <t xml:space="preserve">start</t>
   </si>
   <si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">Type of barrier across highway or path</t>
   </si>
   <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
     <t xml:space="preserve">minimal</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t xml:space="preserve">Is the gate locked ?</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
     <t xml:space="preserve">Take A Picture</t>
   </si>
   <si>
+    <t xml:space="preserve">Max-pixels=1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">end_group</t>
   </si>
   <si>
@@ -180,9 +189,6 @@
     <t xml:space="preserve">Fence</t>
   </si>
   <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
     <t xml:space="preserve">Single swing gate</t>
   </si>
   <si>
@@ -202,9 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">No, it’s not locked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">Yes, it’s locked</t>
@@ -233,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -261,6 +264,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -332,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,35 +356,39 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,43 +396,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,16 +459,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,417 +490,429 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
+    <row r="6" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
+    <row r="14" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
+    <row r="15" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
+    <row r="16" s="13" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
   </sheetData>
@@ -906,19 +933,19 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -933,10 +960,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,10 +971,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,10 +982,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,10 +993,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +1015,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,10 +1026,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,10 +1037,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,43 +1048,43 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1082,28 +1109,28 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="22" t="n">
+        <v>67</v>
+      </c>
+      <c r="B2" s="23" t="n">
         <f aca="true">NOW()</f>
-        <v>44391.4702283666</v>
+        <v>44436.7356630358</v>
       </c>
     </row>
   </sheetData>

--- a/XForms/RoadBarriers.xlsx
+++ b/XForms/RoadBarriers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -30,10 +30,10 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label::English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::English</t>
+    <t xml:space="preserve">label::English(en)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::English(en)</t>
   </si>
   <si>
     <t xml:space="preserve">relevant</t>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">Type of barrier across highway or path</t>
   </si>
   <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
     <t xml:space="preserve">minimal</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t xml:space="preserve">Is the gate locked ?</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -180,9 +186,6 @@
     <t xml:space="preserve">Fence</t>
   </si>
   <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
     <t xml:space="preserve">Single swing gate</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t xml:space="preserve">No, it’s not locked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">Yes, it’s locked</t>
@@ -445,13 +445,13 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
   </cols>
@@ -651,41 +651,47 @@
       <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="I8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AMJ10" s="0"/>
     </row>
@@ -694,23 +700,23 @@
     </row>
     <row r="12" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="16"/>
@@ -736,13 +742,13 @@
     </row>
     <row r="13" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="17"/>
@@ -750,7 +756,7 @@
       <c r="G13" s="17"/>
       <c r="H13" s="11"/>
       <c r="I13" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="13"/>
@@ -776,13 +782,13 @@
     </row>
     <row r="14" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="20"/>
@@ -790,7 +796,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="21"/>
@@ -816,13 +822,13 @@
     </row>
     <row r="15" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="20"/>
@@ -830,7 +836,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="11"/>
       <c r="I15" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="21"/>
@@ -856,7 +862,7 @@
     </row>
     <row r="16" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -907,18 +913,18 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -933,10 +939,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,10 +950,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,10 +961,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,10 +972,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,10 +983,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,10 +994,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,10 +1005,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,10 +1016,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,29 +1027,29 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>61</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>62</v>
@@ -1082,9 +1088,9 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="10.5"/>
   </cols>
@@ -1103,7 +1109,7 @@
       </c>
       <c r="B2" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44391.4702283666</v>
+        <v>44444.4113638282</v>
       </c>
     </row>
   </sheetData>
